--- a/biology/Botanique/Ancistrorhynchus_serratus/Ancistrorhynchus_serratus.xlsx
+++ b/biology/Botanique/Ancistrorhynchus_serratus/Ancistrorhynchus_serratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrorhynchus serratus Summerh. est une espèce de plantes à fleurs de la famille des Orchidaceae et du genre Ancistrorhynchus, endémique d'Afrique centrale. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une herbe avec des tiges de 5 à 10 cm, dressées. Les feuilles sont disposées sur deux rangs dans la partie supérieure de la tige, oblongues à lobes apicaux arrondis, minces, finement dentées. L'inflorescence est multiflore, avec moins de 1 cm de longueur. Les fleurs sont blanches, les bractées florales membraneuses. Le labelle ovale, obtus ou arrondi. L'éperon est conique à la base, épais, comprimé au milieu, renflé au sommet, plus long que le labelle.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve au Nigeria, en Guinée équatoriale et au Cameroun.
 </t>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une épiphyte qu'on trouve en forêts humides de plaine, en forêts sub-montagnardes à montagnardes et en forêts claires.
 </t>
